--- a/gerenciador_propostas.xlsx
+++ b/gerenciador_propostas.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AGUARDANDO SALDO" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SALDOS RETORNADOS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SALDOS NÃO RETORNADOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CONTRATOS NOVOS E REFIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="AGUARDANDO SALDO" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SALDOS RETORNADOS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SALDOS NÃO RETORNADOS" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,115 +439,95 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>DATA_ENVIO_CIP</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DATA_RETORNO_PREVISTA</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DATA_RETORNO_CIP</t>
+          <t>Nº Proposta</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>NUMERO_PROPOSTA</t>
+          <t>CPF</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CPF</t>
+          <t>NOME_CLIENTE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>NOME_CLIENTE</t>
+          <t>Promotora</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>BANCO_PROPONENTE</t>
+          <t>Banco</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>PROMOTORA</t>
+          <t>Valor Parcela</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ORGAO</t>
+          <t>Vl. contrato</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>VALOR_PARCELA</t>
+          <t>LINK_FORMALIZACAO</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BANCO_ORIGEM_DIVIDA</t>
+          <t>OBSERVACOES</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>SALDO_DEVEDOR_PREVISTO</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>VALOR_LIQUIDO_PREVISTO</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SALDO_RETORNADO_CIP</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>VALOR_LIQUIDO_ATUALIZADO</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>STATUS_PROPOSTA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>LINK_FORMALIZACAO</t>
+          <t>TIPO_OPERACAO</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>969889114</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>969790107</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23075767034</t>
-        </is>
-      </c>
+          <t>00930098013</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GABRIEL DAVILA MARTINS</t>
+          <t>BEVICRED</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -556,58 +537,44 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>BEVICRED</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>INSS</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>211.8</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>BANCO PINE</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>8250</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1013.51</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+          <t>516.55</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Novo</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-05-26</t>
+          <t>2025-06-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-06-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>969889114</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>969794812</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>64137309000</t>
-        </is>
-      </c>
+          <t>00930098013</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>JORGE DELMAR BASTOS</t>
+          <t>BEVICRED</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -617,32 +584,18 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>BEVICRED</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>INSS</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>177.05</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>BANCO PINE</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>7000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1058.06</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+          <t>516.55</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Novo</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -655,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,6 +702,275 @@
           <t>LINK_FORMALIZACAO</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACOES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>802559423</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97236730025</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ADRIANA TEREZINHA NUNES CORREA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>BANCO DIGIO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CONECT</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>INSS</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BANCO FACTA</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5343.9</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>HTTPS://WWW3.ACESSO.IO/IBI/CAPTURE/SMS/START.ASPX?ID=4AA0626E-18EE-4405-8EC6-179AFBC440AD</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-03</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-06-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>802565746</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27184820010</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LUIZ TRINDADE BASTOS</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>BANCO DIGIO</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CONECT</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>INSS</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>423.23</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BANCO PINE</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>17750</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1752.58</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>HTTPS://WWW3.ACESSO.IO/IBI/CAPTURE/SMS/START.ASPX?ID=75F70356-882A-4ABF-AECD-C79E91AAC009</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56161565161</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95660283004</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MARCOS DE SOUA SENA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>BANCO FACTA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CONECT</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>INSS</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>500</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>BANCO BMG</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>AGUARDANDO SALDO</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-06-11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>616161651</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95660283004</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MARCOS DE SOZUA SENA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>ALFA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>CAPITAL 2</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>INSS</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>BANCO BANRISUL</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>AGUARDANDO SALDO</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -761,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,6 +1077,122 @@
           <t>LINK_FORMALIZACAO</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACOES</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DATA_ENVIO_CIP</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DATA_RETORNO_PREVISTA</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DATA_RETORNO_CIP</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUMERO_PROPOSTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>NOME_CLIENTE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BANCO_PROPONENTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PROMOTORA</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>ORGAO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR_PARCELA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BANCO_ORIGEM_DIVIDA</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SALDO_DEVEDOR_PREVISTO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR_LIQUIDO_PREVISTO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SALDO_RETORNADO_CIP</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>VALOR_LIQUIDO_ATUALIZADO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>STATUS_PROPOSTA</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LINK_FORMALIZACAO</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>OBSERVACOES</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
